--- a/data/pca/factorExposure/factorExposure_2010-03-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01453083114454499</v>
+        <v>-0.01686722280815214</v>
       </c>
       <c r="C2">
-        <v>-0.00311092007185458</v>
+        <v>-0.0009761161746901593</v>
       </c>
       <c r="D2">
-        <v>-0.01140112194705686</v>
+        <v>-0.00780303881792598</v>
       </c>
       <c r="E2">
-        <v>0.01516906604056457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.0001854468627057289</v>
+      </c>
+      <c r="F2">
+        <v>0.009288761127998821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1241886760921589</v>
+        <v>-0.09370896768917726</v>
       </c>
       <c r="C4">
-        <v>-0.03379309692499158</v>
+        <v>-0.01575696967180345</v>
       </c>
       <c r="D4">
-        <v>-0.05569737114640392</v>
+        <v>-0.08422041573577249</v>
       </c>
       <c r="E4">
-        <v>0.007965308364566978</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02958325517182857</v>
+      </c>
+      <c r="F4">
+        <v>-0.02976772221367242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1174682930013075</v>
+        <v>-0.1549344289942172</v>
       </c>
       <c r="C6">
-        <v>0.01909546249005398</v>
+        <v>-0.02455676260652685</v>
       </c>
       <c r="D6">
-        <v>0.0007496774745057742</v>
+        <v>0.02280933993455267</v>
       </c>
       <c r="E6">
-        <v>0.01799331489073919</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.009998706295007825</v>
+      </c>
+      <c r="F6">
+        <v>-0.04760672389531576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07322616140707676</v>
+        <v>-0.05949161178908072</v>
       </c>
       <c r="C7">
-        <v>-0.009414944750804146</v>
+        <v>0.001037887035424448</v>
       </c>
       <c r="D7">
-        <v>-0.069016714649657</v>
+        <v>-0.05265710193804492</v>
       </c>
       <c r="E7">
-        <v>0.04991304566516425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01355206391895871</v>
+      </c>
+      <c r="F7">
+        <v>-0.04480586955728594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05198060644348238</v>
+        <v>-0.05812137190606921</v>
       </c>
       <c r="C8">
-        <v>-0.003186943214776658</v>
+        <v>0.01338691564012738</v>
       </c>
       <c r="D8">
-        <v>-0.02450723741425014</v>
+        <v>-0.03288490873764412</v>
       </c>
       <c r="E8">
-        <v>0.02153741368751638</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.0156111140138844</v>
+      </c>
+      <c r="F8">
+        <v>0.02876446268297088</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09356710765581117</v>
+        <v>-0.07139050836900278</v>
       </c>
       <c r="C9">
-        <v>-0.0426095743302905</v>
+        <v>-0.01176445414470576</v>
       </c>
       <c r="D9">
-        <v>-0.03477741395480889</v>
+        <v>-0.08325995713487837</v>
       </c>
       <c r="E9">
-        <v>0.01858611482527213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.02336518779366829</v>
+      </c>
+      <c r="F9">
+        <v>-0.04925330662363112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08107227244162192</v>
+        <v>-0.09529043167415277</v>
       </c>
       <c r="C10">
-        <v>0.1324832981373799</v>
+        <v>-0.01792713166720455</v>
       </c>
       <c r="D10">
-        <v>0.1266094609224757</v>
+        <v>0.1689286659063542</v>
       </c>
       <c r="E10">
-        <v>0.006449083775660936</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.03839575597290243</v>
+      </c>
+      <c r="F10">
+        <v>0.05542685869941382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08506298450192812</v>
+        <v>-0.08734038176177489</v>
       </c>
       <c r="C11">
-        <v>-0.01942386504798157</v>
+        <v>-0.01148726257705832</v>
       </c>
       <c r="D11">
-        <v>-0.05384998989635712</v>
+        <v>-0.1154106885024506</v>
       </c>
       <c r="E11">
-        <v>0.04378027828043003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.04740037255208128</v>
+      </c>
+      <c r="F11">
+        <v>-0.02068886001997752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09030713911588403</v>
+        <v>-0.09189471529521588</v>
       </c>
       <c r="C12">
-        <v>-0.02958997225870801</v>
+        <v>-0.008981974144380591</v>
       </c>
       <c r="D12">
-        <v>-0.07405916660022349</v>
+        <v>-0.1250282876334283</v>
       </c>
       <c r="E12">
-        <v>0.04639637645980595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.04770068263634723</v>
+      </c>
+      <c r="F12">
+        <v>-0.01974965720077136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04329253359274782</v>
+        <v>-0.04324026588519783</v>
       </c>
       <c r="C13">
-        <v>-0.03729082017384507</v>
+        <v>-0.004060164787019665</v>
       </c>
       <c r="D13">
-        <v>0.001540576074060696</v>
+        <v>-0.04815673241052865</v>
       </c>
       <c r="E13">
-        <v>0.00719187092198951</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01286922388993374</v>
+      </c>
+      <c r="F13">
+        <v>-0.009202469032980318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02818851293379646</v>
+        <v>-0.02252492561335408</v>
       </c>
       <c r="C14">
-        <v>-6.08834665235843e-05</v>
+        <v>-0.01412823847236859</v>
       </c>
       <c r="D14">
-        <v>-0.008557111347913447</v>
+        <v>-0.03230054785892138</v>
       </c>
       <c r="E14">
-        <v>0.006020599173492809</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.01750262308246246</v>
+      </c>
+      <c r="F14">
+        <v>-0.0174544627841619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02506141840955605</v>
+        <v>-0.03152425853189393</v>
       </c>
       <c r="C15">
-        <v>-0.02016206210440396</v>
+        <v>-0.005254510076190315</v>
       </c>
       <c r="D15">
-        <v>-0.00262636838471161</v>
+        <v>-0.04531735226626597</v>
       </c>
       <c r="E15">
-        <v>0.02022408889942792</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.007324714583078005</v>
+      </c>
+      <c r="F15">
+        <v>-0.02884217612658694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.09094576908091545</v>
+        <v>-0.0731042257625668</v>
       </c>
       <c r="C16">
-        <v>-0.01309566707223085</v>
+        <v>-0.002969835622388655</v>
       </c>
       <c r="D16">
-        <v>-0.06824062838178641</v>
+        <v>-0.1206981139738219</v>
       </c>
       <c r="E16">
-        <v>0.05223188542572232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.06258432965012313</v>
+      </c>
+      <c r="F16">
+        <v>-0.02577289033200868</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02452684445123068</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003807610182801138</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02062461263587211</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>-0.005348987478265688</v>
+      </c>
+      <c r="F18">
+        <v>0.01806382890775512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.05011340313906348</v>
+        <v>-0.06029720544566575</v>
       </c>
       <c r="C20">
-        <v>0.002830547135018006</v>
+        <v>-0.0003980762329414149</v>
       </c>
       <c r="D20">
-        <v>-0.04489988259599339</v>
+        <v>-0.07691536600783598</v>
       </c>
       <c r="E20">
-        <v>-0.0005274234445827474</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.05550955594847337</v>
+      </c>
+      <c r="F20">
+        <v>-0.02409779284373264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02242297161233278</v>
+        <v>-0.03901872798290353</v>
       </c>
       <c r="C21">
-        <v>0.007568840835105268</v>
+        <v>-0.006689502916826572</v>
       </c>
       <c r="D21">
-        <v>-0.001294871216806367</v>
+        <v>-0.03569098180008255</v>
       </c>
       <c r="E21">
-        <v>-0.02980700264262732</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.008022312449762217</v>
+      </c>
+      <c r="F21">
+        <v>0.02040791278065026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02872739570304631</v>
+        <v>-0.04401635185676526</v>
       </c>
       <c r="C22">
-        <v>0.0169772077477935</v>
+        <v>-0.001179603708977652</v>
       </c>
       <c r="D22">
-        <v>0.02546195647484509</v>
+        <v>-0.001931703160370032</v>
       </c>
       <c r="E22">
-        <v>0.05933661161397289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.02885372185338914</v>
+      </c>
+      <c r="F22">
+        <v>0.009181215039695968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02890969497784815</v>
+        <v>-0.04406959829042083</v>
       </c>
       <c r="C23">
-        <v>0.0170880218539792</v>
+        <v>-0.001202116029288562</v>
       </c>
       <c r="D23">
-        <v>0.02489993913365666</v>
+        <v>-0.002055188830409067</v>
       </c>
       <c r="E23">
-        <v>0.06116276275748127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.02919968058517632</v>
+      </c>
+      <c r="F23">
+        <v>0.008742064405345138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09569247481008776</v>
+        <v>-0.07932328719593167</v>
       </c>
       <c r="C24">
-        <v>-0.01882009930202275</v>
+        <v>-0.003057142563527541</v>
       </c>
       <c r="D24">
-        <v>-0.07267829166275461</v>
+        <v>-0.1193849737806792</v>
       </c>
       <c r="E24">
-        <v>0.04116148987551648</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.05044889706965792</v>
+      </c>
+      <c r="F24">
+        <v>-0.02298361843352364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09715576345073822</v>
+        <v>-0.08481332251953201</v>
       </c>
       <c r="C25">
-        <v>-0.01031856770351571</v>
+        <v>-0.005262999890649681</v>
       </c>
       <c r="D25">
-        <v>-0.0552894373706996</v>
+        <v>-0.108370382839265</v>
       </c>
       <c r="E25">
-        <v>0.04886778561591013</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03315726840329947</v>
+      </c>
+      <c r="F25">
+        <v>-0.02729292932486199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03743655053165118</v>
+        <v>-0.05489505083228495</v>
       </c>
       <c r="C26">
-        <v>0.02874763733946703</v>
+        <v>-0.01455536387832694</v>
       </c>
       <c r="D26">
-        <v>0.002121436942048866</v>
+        <v>-0.04050510980162545</v>
       </c>
       <c r="E26">
-        <v>0.002729493621060422</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02616737980370194</v>
+      </c>
+      <c r="F26">
+        <v>0.009688283015570348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.08436787560897022</v>
+        <v>-0.1434856349581589</v>
       </c>
       <c r="C28">
-        <v>0.1710824604681369</v>
+        <v>-0.01667302604961906</v>
       </c>
       <c r="D28">
-        <v>0.2663716475741483</v>
+        <v>0.2647403371708965</v>
       </c>
       <c r="E28">
-        <v>0.02217423033083706</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.06917367575076637</v>
+      </c>
+      <c r="F28">
+        <v>-0.01981725049633367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02804359288927676</v>
+        <v>-0.02729711788599877</v>
       </c>
       <c r="C29">
-        <v>-0.01076639406491527</v>
+        <v>-0.008331363583187663</v>
       </c>
       <c r="D29">
-        <v>-0.00115984429967873</v>
+        <v>-0.0314642029828775</v>
       </c>
       <c r="E29">
-        <v>0.009929570756832724</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.01142293135521541</v>
+      </c>
+      <c r="F29">
+        <v>0.01244794609348803</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1169450515241197</v>
+        <v>-0.06254814256514488</v>
       </c>
       <c r="C30">
-        <v>-0.06253429662514566</v>
+        <v>-0.00439710426982444</v>
       </c>
       <c r="D30">
-        <v>-0.06425232330324268</v>
+        <v>-0.08780307035086089</v>
       </c>
       <c r="E30">
-        <v>0.03952945697239184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02332384408366659</v>
+      </c>
+      <c r="F30">
+        <v>-0.09382654541053773</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02878412060003364</v>
+        <v>-0.04826423331274717</v>
       </c>
       <c r="C31">
-        <v>-0.003881245074431381</v>
+        <v>-0.01502557997376269</v>
       </c>
       <c r="D31">
-        <v>-0.0319506924527706</v>
+        <v>-0.02609860434039254</v>
       </c>
       <c r="E31">
-        <v>0.02092370630396277</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02759072382500524</v>
+      </c>
+      <c r="F31">
+        <v>0.005366552004650441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06171118735640416</v>
+        <v>-0.04799201175004297</v>
       </c>
       <c r="C32">
-        <v>0.007769934554078251</v>
+        <v>0.0006201429425362953</v>
       </c>
       <c r="D32">
-        <v>-0.03020099857983475</v>
+        <v>-0.03163618352105362</v>
       </c>
       <c r="E32">
-        <v>0.008657066102631906</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.03023760220287218</v>
+      </c>
+      <c r="F32">
+        <v>-0.007001566739191287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1034284622631754</v>
+        <v>-0.08944695564235527</v>
       </c>
       <c r="C33">
-        <v>-0.04605782115082766</v>
+        <v>-0.008462619796794232</v>
       </c>
       <c r="D33">
-        <v>-0.0514347960840757</v>
+        <v>-0.09730725484953445</v>
       </c>
       <c r="E33">
-        <v>0.09128320961593485</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.04613519344428453</v>
+      </c>
+      <c r="F33">
+        <v>-0.03953753910316164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.08601325897725996</v>
+        <v>-0.06699484999696745</v>
       </c>
       <c r="C34">
-        <v>-0.0123939869720411</v>
+        <v>-0.01191208351124652</v>
       </c>
       <c r="D34">
-        <v>-0.06245654348346563</v>
+        <v>-0.1010432229213223</v>
       </c>
       <c r="E34">
-        <v>0.04548694411569069</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03528253686639811</v>
+      </c>
+      <c r="F34">
+        <v>-0.03620951492933785</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01427917713693178</v>
+        <v>-0.0246649792430757</v>
       </c>
       <c r="C35">
-        <v>-0.01467054756519944</v>
+        <v>-0.002354776709437016</v>
       </c>
       <c r="D35">
-        <v>-0.003326487430523922</v>
+        <v>-0.01189990560019017</v>
       </c>
       <c r="E35">
-        <v>0.00710956744118517</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.01098910191733842</v>
+      </c>
+      <c r="F35">
+        <v>-0.006372405388614648</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02438720888836668</v>
+        <v>-0.02445229823155979</v>
       </c>
       <c r="C36">
-        <v>-0.01067443906907147</v>
+        <v>-0.007559592220201032</v>
       </c>
       <c r="D36">
-        <v>-0.0004734526549590023</v>
+        <v>-0.03750445580263868</v>
       </c>
       <c r="E36">
-        <v>0.001216810146331227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.01696932443275825</v>
+      </c>
+      <c r="F36">
+        <v>-0.01307723088548164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.006692527525955424</v>
+        <v>-0.001491568962656083</v>
       </c>
       <c r="C38">
-        <v>-0.002327654100358039</v>
+        <v>-0.0002263650246562326</v>
       </c>
       <c r="D38">
-        <v>-0.004008481942553703</v>
+        <v>-0.0008719827608004196</v>
       </c>
       <c r="E38">
-        <v>0.003259482444246998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.00121680671918404</v>
+      </c>
+      <c r="F38">
+        <v>0.0009448183306656089</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1460260068442359</v>
+        <v>-0.1076206129329068</v>
       </c>
       <c r="C39">
-        <v>-0.0523019153449879</v>
+        <v>-0.0166005806496666</v>
       </c>
       <c r="D39">
-        <v>-0.1039511138809959</v>
+        <v>-0.1548046453296367</v>
       </c>
       <c r="E39">
-        <v>0.07947491659535909</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.06065130170490118</v>
+      </c>
+      <c r="F39">
+        <v>-0.02504196376884168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.008031101718037715</v>
+        <v>-0.03740278592699391</v>
       </c>
       <c r="C40">
-        <v>-0.00492205213173042</v>
+        <v>-0.007177334110234604</v>
       </c>
       <c r="D40">
-        <v>-0.01718095260706756</v>
+        <v>-0.03386975026717833</v>
       </c>
       <c r="E40">
-        <v>-0.01421381553266135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.002989446862964193</v>
+      </c>
+      <c r="F40">
+        <v>0.01516472619506451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01959141638253374</v>
+        <v>-0.02637464664150443</v>
       </c>
       <c r="C41">
-        <v>0.02811953696934172</v>
+        <v>-0.006519630302436761</v>
       </c>
       <c r="D41">
-        <v>-0.007082261792768807</v>
+        <v>-0.0115289233152757</v>
       </c>
       <c r="E41">
-        <v>0.008940381068377011</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01251214044828887</v>
+      </c>
+      <c r="F41">
+        <v>0.008731927144427267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02845717762768736</v>
+        <v>-0.0403119016662922</v>
       </c>
       <c r="C43">
-        <v>0.02717294003806065</v>
+        <v>-0.006628248507930832</v>
       </c>
       <c r="D43">
-        <v>-0.020679240330664</v>
+        <v>-0.0205903393595018</v>
       </c>
       <c r="E43">
-        <v>0.03576193749557425</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02398944255786436</v>
+      </c>
+      <c r="F43">
+        <v>0.01278076343279448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1390554628798715</v>
+        <v>-0.0758253487094676</v>
       </c>
       <c r="C44">
-        <v>-0.07139112749016663</v>
+        <v>-0.02130815151573549</v>
       </c>
       <c r="D44">
-        <v>-0.08216787540222205</v>
+        <v>-0.09490664084738387</v>
       </c>
       <c r="E44">
-        <v>0.05645074472695447</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07311985358930613</v>
+      </c>
+      <c r="F44">
+        <v>-0.1721603032290483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01449532599975886</v>
+        <v>-0.02307433339655977</v>
       </c>
       <c r="C46">
-        <v>0.02324314846701375</v>
+        <v>-0.003537171264542218</v>
       </c>
       <c r="D46">
-        <v>0.003276570969011456</v>
+        <v>-0.01267697486723036</v>
       </c>
       <c r="E46">
-        <v>0.03601591989183515</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02237996887757079</v>
+      </c>
+      <c r="F46">
+        <v>-4.068735163621883e-05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03893942512952318</v>
+        <v>-0.05155689840680088</v>
       </c>
       <c r="C47">
-        <v>0.01189306421145229</v>
+        <v>-0.003175670272640221</v>
       </c>
       <c r="D47">
-        <v>-0.006622893878797093</v>
+        <v>-0.01369261315365684</v>
       </c>
       <c r="E47">
-        <v>0.004198729668387891</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.02286986160510425</v>
+      </c>
+      <c r="F47">
+        <v>0.03985750262664364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03931580205281722</v>
+        <v>-0.04762854181585766</v>
       </c>
       <c r="C48">
-        <v>-0.01217203405097859</v>
+        <v>-0.00268249823329339</v>
       </c>
       <c r="D48">
-        <v>0.002476851746386329</v>
+        <v>-0.05167455562328658</v>
       </c>
       <c r="E48">
-        <v>0.009880742873528133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.004814765453781413</v>
+      </c>
+      <c r="F48">
+        <v>-0.006050363396343786</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2214383857537135</v>
+        <v>-0.2026382077559541</v>
       </c>
       <c r="C49">
-        <v>0.06054091703509205</v>
+        <v>-0.01744962999363117</v>
       </c>
       <c r="D49">
-        <v>-0.03041617564201575</v>
+        <v>0.01009064329233199</v>
       </c>
       <c r="E49">
-        <v>-0.02179813808157454</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.0329971046198641</v>
+      </c>
+      <c r="F49">
+        <v>-0.02990309489932347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03871641466800054</v>
+        <v>-0.04820070826865062</v>
       </c>
       <c r="C50">
-        <v>0.003371012845607521</v>
+        <v>-0.01104389112885364</v>
       </c>
       <c r="D50">
-        <v>-0.03809619526409228</v>
+        <v>-0.02560033833155063</v>
       </c>
       <c r="E50">
-        <v>0.01658957765899943</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02946240340781131</v>
+      </c>
+      <c r="F50">
+        <v>-0.006962135919386438</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.009232345930232144</v>
+        <v>-0.002121385477118051</v>
       </c>
       <c r="C51">
-        <v>0.009277093216121975</v>
+        <v>-0.0005317389318907577</v>
       </c>
       <c r="D51">
-        <v>0.01307100100582669</v>
+        <v>0.002264960509262142</v>
       </c>
       <c r="E51">
-        <v>0.0154301478460563</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-7.721169956757053e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.004279496156620549</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.131452353932921</v>
+        <v>-0.1447408295673078</v>
       </c>
       <c r="C52">
-        <v>-0.0730309732261524</v>
+        <v>-0.01383317531396154</v>
       </c>
       <c r="D52">
-        <v>-0.06449213391805766</v>
+        <v>-0.04977380078580537</v>
       </c>
       <c r="E52">
-        <v>0.001759601240723013</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.02389545642879138</v>
+      </c>
+      <c r="F52">
+        <v>-0.038339897588812</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1552164219214986</v>
+        <v>-0.1737262374812354</v>
       </c>
       <c r="C53">
-        <v>-0.01464052031810386</v>
+        <v>-0.01670792265705101</v>
       </c>
       <c r="D53">
-        <v>-0.01552688805834144</v>
+        <v>-0.008972946950631522</v>
       </c>
       <c r="E53">
-        <v>-0.01089189820815029</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03445980669326764</v>
+      </c>
+      <c r="F53">
+        <v>-0.06859682874972921</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.04806191800124177</v>
+        <v>-0.0220842260862798</v>
       </c>
       <c r="C54">
-        <v>-0.001578610100488776</v>
+        <v>-0.01223053227167121</v>
       </c>
       <c r="D54">
-        <v>-0.01898778856164805</v>
+        <v>-0.03337062842208133</v>
       </c>
       <c r="E54">
-        <v>0.01664998137480129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01502906114121483</v>
+      </c>
+      <c r="F54">
+        <v>0.002160969148823989</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08706144684362821</v>
+        <v>-0.1142020612138776</v>
       </c>
       <c r="C55">
-        <v>-0.03051866157374633</v>
+        <v>-0.01541433934088014</v>
       </c>
       <c r="D55">
-        <v>-0.006830573704757713</v>
+        <v>-0.009635057442524768</v>
       </c>
       <c r="E55">
-        <v>0.04137278449382999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.03046148634857111</v>
+      </c>
+      <c r="F55">
+        <v>-0.04477578410965599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1593106034208561</v>
+        <v>-0.1773463653520203</v>
       </c>
       <c r="C56">
-        <v>-0.01657093291133784</v>
+        <v>-0.01418502690969119</v>
       </c>
       <c r="D56">
-        <v>-0.04708578614496501</v>
+        <v>-0.006107761557833308</v>
       </c>
       <c r="E56">
-        <v>0.02504904879854643</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04036663894318861</v>
+      </c>
+      <c r="F56">
+        <v>-0.04717423391068797</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04173215356336878</v>
+        <v>-0.04569561758834301</v>
       </c>
       <c r="C58">
-        <v>0.01317861574089841</v>
+        <v>-0.001345745366741411</v>
       </c>
       <c r="D58">
-        <v>-0.005300825816675681</v>
+        <v>-0.06764812624780203</v>
       </c>
       <c r="E58">
-        <v>-0.0131750919144404</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02550001322392272</v>
+      </c>
+      <c r="F58">
+        <v>0.04068010219991503</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1506366271906988</v>
+        <v>-0.1724268075003692</v>
       </c>
       <c r="C59">
-        <v>0.1643240899051564</v>
+        <v>-0.01726656937648335</v>
       </c>
       <c r="D59">
-        <v>0.2279394503574961</v>
+        <v>0.2223468066976571</v>
       </c>
       <c r="E59">
-        <v>0.0316673528150883</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04843076536509636</v>
+      </c>
+      <c r="F59">
+        <v>0.03019795438926148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2769321251731985</v>
+        <v>-0.2353115221250382</v>
       </c>
       <c r="C60">
-        <v>-0.05271417214009066</v>
+        <v>0.004422071871018955</v>
       </c>
       <c r="D60">
-        <v>-0.09189634454025887</v>
+        <v>-0.04501017834441965</v>
       </c>
       <c r="E60">
-        <v>-0.08389895767286606</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01134860335249635</v>
+      </c>
+      <c r="F60">
+        <v>0.02345211065047651</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1143001456030908</v>
+        <v>-0.08328571497857323</v>
       </c>
       <c r="C61">
-        <v>-0.0439638044584778</v>
+        <v>-0.01272987889832483</v>
       </c>
       <c r="D61">
-        <v>-0.05115214697303281</v>
+        <v>-0.1152692083189728</v>
       </c>
       <c r="E61">
-        <v>0.05859226365368295</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.04086823915524616</v>
+      </c>
+      <c r="F61">
+        <v>-0.01338529644594793</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1630734632379167</v>
+        <v>-0.1698978076387573</v>
       </c>
       <c r="C62">
-        <v>-0.01176115564887673</v>
+        <v>-0.01774195020295027</v>
       </c>
       <c r="D62">
-        <v>-0.02826601652334584</v>
+        <v>-0.00990742375680197</v>
       </c>
       <c r="E62">
-        <v>0.00834775904553252</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.03639929740923822</v>
+      </c>
+      <c r="F62">
+        <v>-0.02875083410913452</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0420241751681913</v>
+        <v>-0.04238577612936872</v>
       </c>
       <c r="C63">
-        <v>-0.004646455183471918</v>
+        <v>-0.002702702735542706</v>
       </c>
       <c r="D63">
-        <v>0.00560119391213849</v>
+        <v>-0.05509498819155381</v>
       </c>
       <c r="E63">
-        <v>0.0240297960680682</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.0209482787040435</v>
+      </c>
+      <c r="F63">
+        <v>-0.007183432309619904</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09331541092914872</v>
+        <v>-0.111530950804805</v>
       </c>
       <c r="C64">
-        <v>0.002201112102451594</v>
+        <v>-0.01103771680497198</v>
       </c>
       <c r="D64">
-        <v>-0.0184084890112799</v>
+        <v>-0.04266651401637823</v>
       </c>
       <c r="E64">
-        <v>0.005373874843676749</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02032632826229931</v>
+      </c>
+      <c r="F64">
+        <v>-0.02879417180795544</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1183212929780486</v>
+        <v>-0.1461851585402409</v>
       </c>
       <c r="C65">
-        <v>-0.0110609029335199</v>
+        <v>-0.03116943205075113</v>
       </c>
       <c r="D65">
-        <v>0.01555825141666968</v>
+        <v>0.04254762520717097</v>
       </c>
       <c r="E65">
-        <v>-0.003641434374751072</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.0008354198439436898</v>
+      </c>
+      <c r="F65">
+        <v>-0.04208267016549462</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1664307118074493</v>
+        <v>-0.1285509763111346</v>
       </c>
       <c r="C66">
-        <v>-0.04818708888284987</v>
+        <v>-0.01434983491043094</v>
       </c>
       <c r="D66">
-        <v>-0.1167322491887987</v>
+        <v>-0.144013761929851</v>
       </c>
       <c r="E66">
-        <v>0.08472710081936442</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.06768240953448502</v>
+      </c>
+      <c r="F66">
+        <v>-0.03016026586356523</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06998340209005707</v>
+        <v>-0.06322172836828416</v>
       </c>
       <c r="C67">
-        <v>-0.03691094598671254</v>
+        <v>-0.00290521938546791</v>
       </c>
       <c r="D67">
-        <v>-0.01345971191314501</v>
+        <v>-0.05589227266277695</v>
       </c>
       <c r="E67">
-        <v>0.0731238280231227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01857184336705021</v>
+      </c>
+      <c r="F67">
+        <v>0.03860045221823111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.07641329559049624</v>
+        <v>-0.117213757439308</v>
       </c>
       <c r="C68">
-        <v>0.1514098205432586</v>
+        <v>-0.0271721861663238</v>
       </c>
       <c r="D68">
-        <v>0.2346944893698975</v>
+        <v>0.2601300801381328</v>
       </c>
       <c r="E68">
-        <v>0.0122582388808143</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.08646131089464497</v>
+      </c>
+      <c r="F68">
+        <v>-0.01957670994092518</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.0335946607878557</v>
+        <v>-0.03916454583411516</v>
       </c>
       <c r="C69">
-        <v>-0.007690025961978734</v>
+        <v>-0.0008542719078483274</v>
       </c>
       <c r="D69">
-        <v>0.01227491787927149</v>
+        <v>-0.009026743308363127</v>
       </c>
       <c r="E69">
-        <v>0.02714673472274726</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02394575089647647</v>
+      </c>
+      <c r="F69">
+        <v>0.005530718529930504</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.02558896024153032</v>
+        <v>-0.06227745292608984</v>
       </c>
       <c r="C70">
-        <v>-0.009016935824732926</v>
+        <v>0.02869578310066447</v>
       </c>
       <c r="D70">
-        <v>0.03081803258973898</v>
+        <v>-0.03003696609212781</v>
       </c>
       <c r="E70">
-        <v>0.034094046330424</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.04769149316110478</v>
+      </c>
+      <c r="F70">
+        <v>0.2334225541958854</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.08984717512632007</v>
+        <v>-0.1367785676369293</v>
       </c>
       <c r="C71">
-        <v>0.1597471529976114</v>
+        <v>-0.03156836839956661</v>
       </c>
       <c r="D71">
-        <v>0.2523515425581465</v>
+        <v>0.274828955226329</v>
       </c>
       <c r="E71">
-        <v>0.02378407473234678</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.09640401021124531</v>
+      </c>
+      <c r="F71">
+        <v>-0.02440502408971227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1366264484448756</v>
+        <v>-0.1409619773252563</v>
       </c>
       <c r="C72">
-        <v>0.03094495232871384</v>
+        <v>-0.02480470185894142</v>
       </c>
       <c r="D72">
-        <v>0.0001246128422417814</v>
+        <v>-0.003737808007377824</v>
       </c>
       <c r="E72">
-        <v>0.01652233081760562</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.04320814081992071</v>
+      </c>
+      <c r="F72">
+        <v>-0.02982085191763813</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2311732329017603</v>
+        <v>-0.202473784267829</v>
       </c>
       <c r="C73">
-        <v>0.01580188403276244</v>
+        <v>-0.01162602959502463</v>
       </c>
       <c r="D73">
-        <v>-0.03269513277987474</v>
+        <v>-0.01671887438289219</v>
       </c>
       <c r="E73">
-        <v>0.05515989327728572</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06591645497000559</v>
+      </c>
+      <c r="F73">
+        <v>-0.02559868586072853</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1108515931256924</v>
+        <v>-0.09429023487347966</v>
       </c>
       <c r="C74">
-        <v>0.005370451460511754</v>
+        <v>-0.01216744785453952</v>
       </c>
       <c r="D74">
-        <v>-0.03977703506634911</v>
+        <v>-0.02048730848012462</v>
       </c>
       <c r="E74">
-        <v>0.03012140927534056</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.0484777909860734</v>
+      </c>
+      <c r="F74">
+        <v>-0.05060411298567</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1247290862465121</v>
+        <v>-0.1293658953416152</v>
       </c>
       <c r="C75">
-        <v>-0.00838493363956218</v>
+        <v>-0.02647393300904896</v>
       </c>
       <c r="D75">
-        <v>-0.05146344015262957</v>
+        <v>-0.03372528127784126</v>
       </c>
       <c r="E75">
-        <v>0.01833401732282081</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.06064644692835428</v>
+      </c>
+      <c r="F75">
+        <v>-0.01491905109091115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01489128262237687</v>
+        <v>-0.003164378077937192</v>
       </c>
       <c r="C76">
-        <v>0.00942854025208271</v>
+        <v>-0.0007610425905236833</v>
       </c>
       <c r="D76">
-        <v>0.01160527292677208</v>
+        <v>0.002124550722632033</v>
       </c>
       <c r="E76">
-        <v>0.01091732169145807</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0004921796956100713</v>
+      </c>
+      <c r="F76">
+        <v>-0.00373051529253816</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08309825915973645</v>
+        <v>-0.07885515350627437</v>
       </c>
       <c r="C77">
-        <v>-0.06254260081275456</v>
+        <v>-0.008670309783031785</v>
       </c>
       <c r="D77">
-        <v>-0.103471770805825</v>
+        <v>-0.1176272125172377</v>
       </c>
       <c r="E77">
-        <v>-0.004673239763547629</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.03933679480151115</v>
+      </c>
+      <c r="F77">
+        <v>-0.02867363440361954</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09589944918308124</v>
+        <v>-0.1034025357375624</v>
       </c>
       <c r="C78">
-        <v>0.1056048875276971</v>
+        <v>-0.0397754146412811</v>
       </c>
       <c r="D78">
-        <v>-0.08327889679132923</v>
+        <v>-0.1175067126927041</v>
       </c>
       <c r="E78">
-        <v>0.1701261136978405</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.08071943543941489</v>
+      </c>
+      <c r="F78">
+        <v>-0.06131549146652419</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1410848915036522</v>
+        <v>-0.1639893942521579</v>
       </c>
       <c r="C79">
-        <v>0.008653597786043321</v>
+        <v>-0.02047373220533251</v>
       </c>
       <c r="D79">
-        <v>-0.07018331319028885</v>
+        <v>-0.01888547515721429</v>
       </c>
       <c r="E79">
-        <v>0.003634134009835417</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.049647104891012</v>
+      </c>
+      <c r="F79">
+        <v>-0.006286343646934505</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08422286644860016</v>
+        <v>-0.08117549118259881</v>
       </c>
       <c r="C80">
-        <v>-0.05476682385508681</v>
+        <v>0.0007404510553613722</v>
       </c>
       <c r="D80">
-        <v>-0.05157742592753151</v>
+        <v>-0.05665548834742844</v>
       </c>
       <c r="E80">
-        <v>0.06248298072811935</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03648997539797921</v>
+      </c>
+      <c r="F80">
+        <v>0.02545905935572679</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1459217903783696</v>
+        <v>-0.1231771060096408</v>
       </c>
       <c r="C81">
-        <v>-0.006081870385580623</v>
+        <v>-0.03027858441524187</v>
       </c>
       <c r="D81">
-        <v>-0.07393967806246521</v>
+        <v>-0.01728716088650706</v>
       </c>
       <c r="E81">
-        <v>0.03351238883672446</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06022390176653746</v>
+      </c>
+      <c r="F81">
+        <v>-0.01044921970479763</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1708870615716374</v>
+        <v>-0.164329740026067</v>
       </c>
       <c r="C82">
-        <v>-0.03429438672956484</v>
+        <v>-0.02242842518437786</v>
       </c>
       <c r="D82">
-        <v>-0.0527430213760746</v>
+        <v>-0.009986564251473342</v>
       </c>
       <c r="E82">
-        <v>0.02948355374354725</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.03332207066591288</v>
+      </c>
+      <c r="F82">
+        <v>-0.07156872062224184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.07946037172649413</v>
+        <v>-0.06247582854536463</v>
       </c>
       <c r="C83">
-        <v>-0.02932423083997391</v>
+        <v>-0.003076996194990334</v>
       </c>
       <c r="D83">
-        <v>-0.03082491470440125</v>
+        <v>-0.05078979882210043</v>
       </c>
       <c r="E83">
-        <v>-0.04108093137110702</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.005545500101754787</v>
+      </c>
+      <c r="F83">
+        <v>0.03927792222228728</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06842895158949558</v>
+        <v>-0.05907488310313557</v>
       </c>
       <c r="C84">
-        <v>-0.0140138035319287</v>
+        <v>-0.01067221975908025</v>
       </c>
       <c r="D84">
-        <v>-0.001207410286309959</v>
+        <v>-0.06622354047675824</v>
       </c>
       <c r="E84">
-        <v>-0.01030863838861075</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.004648122522441555</v>
+      </c>
+      <c r="F84">
+        <v>-0.007280499390457636</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1290432945928278</v>
+        <v>-0.1387009557390816</v>
       </c>
       <c r="C85">
-        <v>-0.001226601731750924</v>
+        <v>-0.02621741353545974</v>
       </c>
       <c r="D85">
-        <v>-0.03674381637732162</v>
+        <v>-0.01371477830353077</v>
       </c>
       <c r="E85">
-        <v>0.01450492887861664</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.04082697552813543</v>
+      </c>
+      <c r="F85">
+        <v>-0.04577693506376287</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1306427959818404</v>
+        <v>-0.09635874884489785</v>
       </c>
       <c r="C86">
-        <v>0.2417954133084416</v>
+        <v>0.005632632553626615</v>
       </c>
       <c r="D86">
-        <v>-0.2071369822812004</v>
+        <v>-0.03556389207258132</v>
       </c>
       <c r="E86">
-        <v>-0.8870569342407292</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.1689664838116935</v>
+      </c>
+      <c r="F86">
+        <v>0.897786278525793</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1111875212058422</v>
+        <v>-0.09565142816340613</v>
       </c>
       <c r="C87">
-        <v>-0.1048872015105736</v>
+        <v>-0.02202758447504291</v>
       </c>
       <c r="D87">
-        <v>-0.02708451426431932</v>
+        <v>-0.09300884862258595</v>
       </c>
       <c r="E87">
-        <v>0.008795102849338607</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.05434449719418739</v>
+      </c>
+      <c r="F87">
+        <v>-0.06845105749674493</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.04836078881634889</v>
+        <v>-0.06087878331121654</v>
       </c>
       <c r="C88">
-        <v>0.003486545108583539</v>
+        <v>-0.00241708389553804</v>
       </c>
       <c r="D88">
-        <v>-0.03115439615001429</v>
+        <v>-0.05288912657579524</v>
       </c>
       <c r="E88">
-        <v>0.04106329213763986</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02652201794120021</v>
+      </c>
+      <c r="F88">
+        <v>-0.01059262074798395</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1368226470668364</v>
+        <v>-0.1357915786150753</v>
       </c>
       <c r="C89">
-        <v>0.2087202770861292</v>
+        <v>-0.009432909562866149</v>
       </c>
       <c r="D89">
-        <v>0.3080807881127617</v>
+        <v>0.2537715000079103</v>
       </c>
       <c r="E89">
-        <v>0.004430810364538856</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.08978479132604071</v>
+      </c>
+      <c r="F89">
+        <v>-0.007101074966548607</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1027094486440695</v>
+        <v>-0.1480613367764357</v>
       </c>
       <c r="C90">
-        <v>0.1640161121625532</v>
+        <v>-0.02726545723692609</v>
       </c>
       <c r="D90">
-        <v>0.2461001490382711</v>
+        <v>0.2668514607282064</v>
       </c>
       <c r="E90">
-        <v>0.009923527264726355</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.1097998743964506</v>
+      </c>
+      <c r="F90">
+        <v>-0.009507396914011992</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.08901245669586555</v>
+        <v>-0.1196022885026665</v>
       </c>
       <c r="C91">
-        <v>0.001480632181750417</v>
+        <v>-0.01692011882407528</v>
       </c>
       <c r="D91">
-        <v>-0.03378153858811284</v>
+        <v>0.009295916025769992</v>
       </c>
       <c r="E91">
-        <v>-0.003470334443309296</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05803938993469847</v>
+      </c>
+      <c r="F91">
+        <v>0.01212035416584061</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1209748734619675</v>
+        <v>-0.1497957584724712</v>
       </c>
       <c r="C92">
-        <v>0.1675779902699045</v>
+        <v>-0.01881596532354403</v>
       </c>
       <c r="D92">
-        <v>0.2833682569081281</v>
+        <v>0.2931461530763861</v>
       </c>
       <c r="E92">
-        <v>8.479951159091148e-05</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.1042235266218984</v>
+      </c>
+      <c r="F92">
+        <v>-0.002168693059625538</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1021271224279848</v>
+        <v>-0.1520768435745132</v>
       </c>
       <c r="C93">
-        <v>0.1843672998416454</v>
+        <v>-0.02330095916270877</v>
       </c>
       <c r="D93">
-        <v>0.2753568332635679</v>
+        <v>0.2654957856142328</v>
       </c>
       <c r="E93">
-        <v>-0.003960098454506999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.07753655437687774</v>
+      </c>
+      <c r="F93">
+        <v>-0.009778167192780149</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1480007344049628</v>
+        <v>-0.1327361591068733</v>
       </c>
       <c r="C94">
-        <v>-0.001518767461122261</v>
+        <v>-0.02361623710210896</v>
       </c>
       <c r="D94">
-        <v>-0.04471360744020303</v>
+        <v>-0.0454658770519298</v>
       </c>
       <c r="E94">
-        <v>0.06839977460186136</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06066027384038498</v>
+      </c>
+      <c r="F94">
+        <v>-0.03362470801367497</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1145067599226104</v>
+        <v>-0.125944263780619</v>
       </c>
       <c r="C95">
-        <v>-0.002981989972722838</v>
+        <v>-0.004749176267081489</v>
       </c>
       <c r="D95">
-        <v>-0.03910232966085497</v>
+        <v>-0.09136295453843409</v>
       </c>
       <c r="E95">
-        <v>0.0381693107802978</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.0454682170261924</v>
+      </c>
+      <c r="F95">
+        <v>0.01042822079423804</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01544830322123776</v>
+        <v>-0.09852435896923056</v>
       </c>
       <c r="C96">
-        <v>-0.002473280046907021</v>
+        <v>0.9888726440124013</v>
       </c>
       <c r="D96">
-        <v>-0.0007990547269423888</v>
+        <v>0.0345325264134302</v>
       </c>
       <c r="E96">
-        <v>0.001706555688843005</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>0.05758031259401311</v>
+      </c>
+      <c r="F96">
+        <v>-0.04243777829280336</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1725944788265162</v>
+        <v>-0.1895212994219728</v>
       </c>
       <c r="C97">
-        <v>0.03808297352173265</v>
+        <v>0.009576521225311876</v>
       </c>
       <c r="D97">
-        <v>-0.03175383606844136</v>
+        <v>0.02156289838083354</v>
       </c>
       <c r="E97">
-        <v>0.04821797385034814</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.01045120423759668</v>
+      </c>
+      <c r="F97">
+        <v>0.0990523383328793</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2539540001379668</v>
+        <v>-0.2051467542341993</v>
       </c>
       <c r="C98">
-        <v>-0.02024155203748259</v>
+        <v>-0.007158929894407733</v>
       </c>
       <c r="D98">
-        <v>0.0257618440615784</v>
+        <v>-0.01040446190656383</v>
       </c>
       <c r="E98">
-        <v>-0.1020282019981746</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.09443024079910894</v>
+      </c>
+      <c r="F98">
+        <v>0.1031407169372068</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.04770593735765402</v>
+        <v>-0.05557611037364103</v>
       </c>
       <c r="C99">
-        <v>0.02020106069986961</v>
+        <v>0.004296503462009695</v>
       </c>
       <c r="D99">
-        <v>0.001758257818135902</v>
+        <v>-0.03795254506876622</v>
       </c>
       <c r="E99">
-        <v>0.04642764516853803</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.02526495588249891</v>
+      </c>
+      <c r="F99">
+        <v>-0.003373404626378634</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.127913451251792</v>
+        <v>-0.1234669578712602</v>
       </c>
       <c r="C100">
-        <v>-0.7787600447141942</v>
+        <v>0.0517937800162343</v>
       </c>
       <c r="D100">
-        <v>0.4857585080645044</v>
+        <v>-0.3473797958231736</v>
       </c>
       <c r="E100">
-        <v>-0.2611861805250985</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>-0.8925853345096311</v>
+      </c>
+      <c r="F100">
+        <v>0.09231601350620809</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.027725122056344</v>
+        <v>-0.02721993216398006</v>
       </c>
       <c r="C101">
-        <v>-0.01130586892890819</v>
+        <v>-0.008335521918109469</v>
       </c>
       <c r="D101">
-        <v>-0.00143951723050042</v>
+        <v>-0.03117001079045547</v>
       </c>
       <c r="E101">
-        <v>0.01053682463567478</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01094713699938617</v>
+      </c>
+      <c r="F101">
+        <v>0.01388009789575624</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
